--- a/sm/tile daily owning cost III.xlsx
+++ b/sm/tile daily owning cost III.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t xml:space="preserve">SELANIK TILES-Mustafa BALCI</t>
   </si>
   <si>
     <t xml:space="preserve">BALMER MARBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN GEORGIA</t>
   </si>
   <si>
     <t xml:space="preserve">Murat BALCI – Tokat – TURKEY</t>
@@ -732,8 +735,8 @@
   </sheetPr>
   <dimension ref="C2:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,14 +744,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.25"/>
@@ -766,23 +769,26 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -792,40 +798,40 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
@@ -843,13 +849,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="25" t="n">
         <v>8.6</v>
@@ -866,13 +872,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="25" t="n">
         <v>10</v>
@@ -889,13 +895,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26" t="n">
@@ -909,13 +915,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>37.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="25" t="n">
         <v>2.5</v>
@@ -931,7 +937,7 @@
     </row>
     <row r="16" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -949,13 +955,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="25" t="n">
         <v>2.5</v>
@@ -971,13 +977,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="n">
@@ -991,7 +997,7 @@
     </row>
     <row r="19" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -1008,13 +1014,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>2.8</v>
@@ -1030,7 +1036,7 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -1048,13 +1054,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>0.9</v>
@@ -1070,13 +1076,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>0.9</v>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="24" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -1110,13 +1116,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>0.086</v>
@@ -1133,13 +1139,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1.51</v>
@@ -1156,13 +1162,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>15</v>
@@ -1178,13 +1184,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="26" t="n">
@@ -1198,13 +1204,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="26" t="n">
@@ -1218,7 +1224,7 @@
     </row>
     <row r="30" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -1236,13 +1242,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="25" t="n">
         <v>10</v>
@@ -1259,13 +1265,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="25" t="n">
         <v>10</v>
@@ -1282,13 +1288,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="25" t="n">
         <v>10</v>
@@ -1305,13 +1311,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" s="25" t="n">
         <v>15</v>
@@ -1328,13 +1334,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="26" t="n">
@@ -1349,13 +1355,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26" t="n">
@@ -1369,13 +1375,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26" t="n">
@@ -1401,7 +1407,7 @@
     </row>
     <row r="39" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1442,10 +1448,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="40" t="n">
         <f aca="false">G39</f>
@@ -1463,13 +1469,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="40" t="n">
         <f aca="false">G39</f>
@@ -1487,13 +1493,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="40" t="n">
         <f aca="false">G39</f>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="43"/>
@@ -1525,12 +1531,12 @@
         <v>755.3412</v>
       </c>
       <c r="H46" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="48"/>
@@ -1539,12 +1545,12 @@
         <v>2500</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="48"/>
@@ -1554,7 +1560,7 @@
         <v>0.30213648</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1573,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="52"/>
@@ -1577,7 +1583,7 @@
         <v>3.353714928</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
